--- a/uploads1/questions.xlsx
+++ b/uploads1/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4dc9c7f77c78add0/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C3E01001-00B4-4006-ADF8-AF152459B46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A29FD8CF-9D0E-47AA-A6C7-43C8B6C2961C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778DD0E0-11CF-4CC3-95A0-B757769EC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{53D38108-2D48-4E6E-A7D5-D93C7BE0FD48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53D38108-2D48-4E6E-A7D5-D93C7BE0FD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>question</t>
   </si>
@@ -45,16 +36,22 @@
     <t>answer</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>gujarat,gandhinagar,delhi,goa</t>
-  </si>
-  <si>
-    <t>alpha,beta,gamma,delta</t>
+    <t>what is java?</t>
+  </si>
+  <si>
+    <t>java is programming language,java is script,java is coffee,java is mug</t>
+  </si>
+  <si>
+    <t>where is india?</t>
+  </si>
+  <si>
+    <t>india is at moon,india is at asia,india is at mars,india is at jjupiter</t>
+  </si>
+  <si>
+    <t>what is 1 + 1 ?</t>
+  </si>
+  <si>
+    <t>1 + 1 is 11,1 + 1 is 21,1 + 1 is 2, 1 + 1 is 111</t>
   </si>
 </sst>
 </file>
@@ -406,19 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED8DD47-206F-4ED6-A6EB-7924AC61E4D7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="59.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,26 +426,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
